--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Choucair\Reto_Tecnico-Choucair\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Choucair\Reto_Tecnico-Choucair\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760ED2E-C672-41C0-8F3F-B6F76994101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD70067-41E1-423C-86F9-A96C1E2913D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Tony</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
